--- a/example/yxy2.xlsx
+++ b/example/yxy2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lynn/GitHub/excel-2-jsonschema-ui/example/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1760" windowWidth="28160" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="1635" yWindow="1755" windowWidth="28155" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -17,11 +12,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schema!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -578,6 +570,14 @@
   </si>
   <si>
     <t>BUSINESS_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusiveMaximum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusiveMinimum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -772,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -949,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,34 +957,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="2"/>
-    <col min="8" max="8" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="2"/>
+    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="2"/>
+    <col min="19" max="19" width="18.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1041,14 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1063,14 +1071,24 @@
         <v>64</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="4">
+        <v>100</v>
+      </c>
+      <c r="N2" s="4">
+        <v>5</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="4">
+        <v>111</v>
+      </c>
+      <c r="T2" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1093,14 +1111,24 @@
         <v>32</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="4">
+        <v>200</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="4">
+        <v>333</v>
+      </c>
+      <c r="T3" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1157,14 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="4">
+        <v>555</v>
+      </c>
+      <c r="T4" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1159,8 +1193,10 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1189,8 +1225,10 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1221,8 +1259,10 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1251,8 +1291,10 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1281,8 +1323,10 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1311,8 +1355,10 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1341,8 +1387,10 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1371,8 +1419,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1401,8 +1451,10 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1431,8 +1483,10 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1461,8 +1515,10 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1489,8 +1545,10 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1519,8 +1577,10 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1549,8 +1609,10 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1579,8 +1641,10 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1673,10 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1639,8 +1705,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1669,8 +1737,10 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1699,8 +1769,10 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1729,8 +1801,10 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1759,8 +1833,10 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1789,8 +1865,10 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1819,8 +1897,10 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1849,8 +1929,10 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1879,8 +1961,10 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -1909,8 +1993,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -1939,8 +2025,10 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1969,8 +2057,10 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1999,8 +2089,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -2029,8 +2121,10 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -2059,8 +2153,10 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2089,8 +2185,10 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2119,8 +2217,10 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -2149,8 +2249,10 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2179,8 +2281,10 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2209,8 +2313,10 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2239,8 +2345,10 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2269,8 +2377,10 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -2299,8 +2409,10 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -2329,8 +2441,10 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -2359,8 +2473,10 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -2389,8 +2505,10 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -2419,8 +2537,10 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="3" t="s">
         <v>17</v>
       </c>
@@ -2447,8 +2567,10 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2597,10 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -2503,8 +2627,10 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -2533,8 +2659,10 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -2563,8 +2691,10 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -2593,8 +2723,10 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -2621,8 +2753,10 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -2649,8 +2783,10 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -2677,8 +2813,10 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -2705,8 +2843,10 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -2733,8 +2873,10 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -2763,8 +2905,10 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="3" t="s">
         <v>17</v>
       </c>
@@ -2793,8 +2937,10 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -2823,8 +2969,10 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -2851,8 +2999,10 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="3" t="s">
         <v>17</v>
       </c>
@@ -2881,8 +3031,10 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="3" t="s">
         <v>17</v>
       </c>
@@ -2909,8 +3061,10 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -2939,8 +3093,10 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -2969,8 +3125,10 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
@@ -2999,8 +3157,10 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -3029,8 +3189,10 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -3059,8 +3221,10 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
@@ -3089,8 +3253,10 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -3119,8 +3285,10 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -3149,8 +3317,10 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -3179,8 +3349,10 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -3209,8 +3381,10 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="3" t="s">
         <v>17</v>
       </c>
@@ -3237,8 +3411,10 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
@@ -3265,8 +3441,10 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -3293,8 +3471,10 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -3321,8 +3501,10 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -3349,8 +3531,10 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -3377,8 +3561,10 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -3405,8 +3591,10 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="3" t="s">
         <v>17</v>
       </c>
@@ -3435,10 +3623,12 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/yxy2.xlsx
+++ b/example/yxy2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1755" windowWidth="28155" windowHeight="15420" tabRatio="500"/>
+    <workbookView windowWidth="19890" windowHeight="7590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schema!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +46,9 @@
     <t>EnumList</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>MaxLength</t>
   </si>
   <si>
@@ -69,27 +67,150 @@
     <t>MinItems</t>
   </si>
   <si>
+    <t>Ignore</t>
+  </si>
+  <si>
     <t>Example</t>
   </si>
   <si>
-    <t>Ignore</t>
+    <t>exclusiveMinimum</t>
+  </si>
+  <si>
+    <t>exclusiveMaximum</t>
   </si>
   <si>
     <t>Order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CUST_CN</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>CREDIT_CODE</t>
+  </si>
+  <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>CREDIT_CODE</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平行车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零配件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
   <si>
     <t>Unified Social Credit Code of Account</t>
@@ -113,6 +234,9 @@
     <t>Transport Status</t>
   </si>
   <si>
+    <t>BUSINESS_TYPE</t>
+  </si>
+  <si>
     <t>Industry Category</t>
   </si>
   <si>
@@ -126,7 +250,6 @@
   </si>
   <si>
     <t>date-time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Commission Date</t>
@@ -192,405 +315,385 @@
     <t>Shipping Agent</t>
   </si>
   <si>
+    <t>FST_SWITCH_BILL_DATE</t>
+  </si>
+  <si>
     <t>Date of D/O Exch. from 1st Agent</t>
   </si>
   <si>
     <t>FST_SWITCH_AGENCY_NAME</t>
   </si>
   <si>
+    <t>1st Agent</t>
+  </si>
+  <si>
     <t>SCD_SWITCH_BILL_DATE</t>
   </si>
   <si>
+    <t>Date of D/O Exch. from 2nd Agent</t>
+  </si>
+  <si>
     <t>SCD_SWITCH_AGENCY_NAME</t>
   </si>
   <si>
+    <t>2nd Agent</t>
+  </si>
+  <si>
     <t>TRD_SWITCH_BILL_DATE</t>
   </si>
   <si>
+    <t>Date of D/O Exch. from 3rd Agent</t>
+  </si>
+  <si>
     <t>TRD_SWITCH_AGENCY_NAME</t>
   </si>
   <si>
+    <t>3rd Agent</t>
+  </si>
+  <si>
     <t>MBL_NO</t>
   </si>
   <si>
+    <t>Master Bill of Lading</t>
+  </si>
+  <si>
     <t>HBL_NO</t>
   </si>
   <si>
+    <t>House Bill of Lading</t>
+  </si>
+  <si>
     <t>TRANSACTION_MODE_NAME</t>
   </si>
   <si>
+    <t>Trade Terms</t>
+  </si>
+  <si>
     <t>CARGO_TYPE_NAME</t>
   </si>
   <si>
+    <t>Consignment Category</t>
+  </si>
+  <si>
     <t>CARGO_NAME_CN</t>
   </si>
   <si>
+    <t>Chinese Commodity Name</t>
+  </si>
+  <si>
     <t>CARGO_NAME_EN</t>
   </si>
   <si>
+    <t>English Commodity Name</t>
+  </si>
+  <si>
     <t>TRADE_TOOL_TYPE_NAME</t>
   </si>
   <si>
+    <t>Ship Mode</t>
+  </si>
+  <si>
     <t>CARRIER_NAME</t>
   </si>
   <si>
+    <t>Carrier</t>
+  </si>
+  <si>
     <t>TRADE_CONT_TYPE</t>
   </si>
   <si>
+    <t>Container Type</t>
+  </si>
+  <si>
     <t>TRANS_TOOL</t>
   </si>
   <si>
+    <t>Vehicle Name</t>
+  </si>
+  <si>
     <t>VOYAGE_NO</t>
   </si>
   <si>
+    <t xml:space="preserve">Voyage </t>
+  </si>
+  <si>
     <t>POL_COUNTRY</t>
   </si>
   <si>
+    <t>Country (Area) of Departure</t>
+  </si>
+  <si>
     <t>POL_NAME</t>
   </si>
   <si>
+    <t>Port of Departure</t>
+  </si>
+  <si>
     <t>POD_COUNTRY</t>
   </si>
   <si>
+    <t>Country (Area) of Destination</t>
+  </si>
+  <si>
     <t>POD_NAME</t>
   </si>
   <si>
+    <t>Port of Destination</t>
+  </si>
+  <si>
     <t>HARBOUR_NAME</t>
   </si>
   <si>
+    <t>Berthing Quay</t>
+  </si>
+  <si>
     <t>ETD</t>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated Time of Departure</t>
   </si>
   <si>
     <t>ATD</t>
   </si>
   <si>
+    <t>Actual Time of Departure</t>
+  </si>
+  <si>
     <t>ETA</t>
   </si>
   <si>
+    <t>Estimated Time of Arrival</t>
+  </si>
+  <si>
     <t>ATA</t>
   </si>
   <si>
+    <t>Actual Time of Arrival</t>
+  </si>
+  <si>
     <t>PACKAGE_NAME</t>
   </si>
   <si>
+    <t>Package Type</t>
+  </si>
+  <si>
     <t>CARGO_NUM</t>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>GROSS_WEIGHT</t>
   </si>
   <si>
+    <t>Gross Weight (kg)</t>
+  </si>
+  <si>
     <t>GROSS_VOLUME</t>
   </si>
   <si>
+    <t>Measurement (cbm)</t>
+  </si>
+  <si>
     <t>CONT_INFO</t>
   </si>
   <si>
+    <t>Container Type/Container Volume</t>
+  </si>
+  <si>
     <t>CONT_TYPE</t>
   </si>
   <si>
     <t>CONT_NO</t>
   </si>
   <si>
+    <t>Container No.</t>
+  </si>
+  <si>
     <t>DECLARATION_NUM</t>
   </si>
   <si>
-    <t>integer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Number of Customs Declaration</t>
   </si>
   <si>
     <t>CARGO_NAME_NUM</t>
   </si>
   <si>
+    <t>Number of Article Declared</t>
+  </si>
+  <si>
     <t>MERGE_BILL_NUM</t>
   </si>
   <si>
+    <t>Number of Combined Customs Declaration</t>
+  </si>
+  <si>
     <t>DUPLICATE_BILL_NUM5</t>
   </si>
   <si>
+    <t>Number of 5-in-1 Customs Declaration</t>
+  </si>
+  <si>
     <t>DUPLICATE_BILL_NUM6</t>
   </si>
   <si>
+    <t>Number of 6-in-1 Customs Declaration</t>
+  </si>
+  <si>
     <t>CUS_NO</t>
   </si>
   <si>
+    <t>Customs Declaration #</t>
+  </si>
+  <si>
+    <t>Status of Customs Declaration</t>
+  </si>
+  <si>
     <t>HGCY_STATUS</t>
   </si>
   <si>
+    <t>Status of Customs Inspection</t>
+  </si>
+  <si>
     <t>SJSTATUS</t>
   </si>
   <si>
+    <t>Status of CIQ Inspection for Commodity Quality</t>
+  </si>
+  <si>
     <t>SJ_STATUS</t>
   </si>
   <si>
+    <t>Release Date of CIQ - Commodity Quality</t>
+  </si>
+  <si>
     <t>SJ_DATE2</t>
   </si>
   <si>
+    <t>Waybill No.</t>
+  </si>
+  <si>
     <t>TRACKING_NO</t>
   </si>
   <si>
     <t>TRANS_STATUS</t>
   </si>
   <si>
+    <t>CIQ Contact No.</t>
+  </si>
+  <si>
     <t>CIQ_NO</t>
   </si>
   <si>
+    <t>Combined Waybill No.</t>
+  </si>
+  <si>
     <t>MERGE_NO</t>
   </si>
   <si>
+    <t>Trucking Company</t>
+  </si>
+  <si>
     <t>CARRIER_CN</t>
   </si>
   <si>
+    <t>Plate No.</t>
+  </si>
+  <si>
     <t>PLATE_NO</t>
   </si>
   <si>
+    <t>Name of Drvier</t>
+  </si>
+  <si>
     <t>CARRIER_DRIVER</t>
   </si>
   <si>
+    <t>Mobile No. of Driver</t>
+  </si>
+  <si>
     <t>CARRIER_TEL</t>
   </si>
   <si>
+    <t>Place of Consignment Pickup</t>
+  </si>
+  <si>
     <t>PICK_UP_COMP_CN</t>
   </si>
   <si>
+    <t>Place 1 of Consignment Delivery</t>
+  </si>
+  <si>
     <t>DELIVERY_COMP_CN</t>
   </si>
   <si>
+    <t>Transport Commission Date</t>
+  </si>
+  <si>
     <t>TRANS_SUB_DATE</t>
   </si>
   <si>
+    <t>Planned Pickup Date</t>
+  </si>
+  <si>
     <t>PICK_UP_DATE</t>
   </si>
   <si>
+    <t>Planned Delivery Date</t>
+  </si>
+  <si>
     <t>DELIVERY_DATE</t>
   </si>
   <si>
     <t>TRANS_START_DATE</t>
   </si>
   <si>
+    <t>Actual Delivery Date</t>
+  </si>
+  <si>
     <t>TRANS_FIN_DATE</t>
   </si>
   <si>
+    <t>Date of Container Pickup</t>
+  </si>
+  <si>
     <t>TX_DATE</t>
   </si>
   <si>
+    <t>Date of Container Return</t>
+  </si>
+  <si>
     <t>HX_DATE</t>
   </si>
   <si>
     <t>SEAL_NO</t>
   </si>
   <si>
-    <t>[服装, 整车, 平行车, 食品, 零配件, 其他]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FST_SWITCH_BILL_DATE</t>
-  </si>
-  <si>
-    <t>1st Agent</t>
-  </si>
-  <si>
-    <t>Date of D/O Exch. from 2nd Agent</t>
-  </si>
-  <si>
-    <t>2nd Agent</t>
-  </si>
-  <si>
-    <t>Date of D/O Exch. from 3rd Agent</t>
-  </si>
-  <si>
-    <t>3rd Agent</t>
-  </si>
-  <si>
-    <t>Master Bill of Lading</t>
-  </si>
-  <si>
-    <t>House Bill of Lading</t>
-  </si>
-  <si>
-    <t>Trade Terms</t>
-  </si>
-  <si>
-    <t>Consignment Category</t>
-  </si>
-  <si>
-    <t>Chinese Commodity Name</t>
-  </si>
-  <si>
-    <t>English Commodity Name</t>
-  </si>
-  <si>
-    <t>Ship Mode</t>
-  </si>
-  <si>
-    <t>Carrier</t>
-  </si>
-  <si>
-    <t>Container Type</t>
-  </si>
-  <si>
-    <t>Vehicle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voyage </t>
-  </si>
-  <si>
-    <t>Country (Area) of Departure</t>
-  </si>
-  <si>
-    <t>Port of Departure</t>
-  </si>
-  <si>
-    <t>Country (Area) of Destination</t>
-  </si>
-  <si>
-    <t>Port of Destination</t>
-  </si>
-  <si>
-    <t>Berthing Quay</t>
-  </si>
-  <si>
-    <t>Estimated Time of Departure</t>
-  </si>
-  <si>
-    <t>Actual Time of Departure</t>
-  </si>
-  <si>
-    <t>Estimated Time of Arrival</t>
-  </si>
-  <si>
-    <t>Actual Time of Arrival</t>
-  </si>
-  <si>
-    <t>Package Type</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Gross Weight (kg)</t>
-  </si>
-  <si>
-    <t>Measurement (cbm)</t>
-  </si>
-  <si>
-    <t>Container Type/Container Volume</t>
-  </si>
-  <si>
-    <t>Container No.</t>
-  </si>
-  <si>
-    <t>Number of Customs Declaration</t>
-  </si>
-  <si>
-    <t>Number of Article Declared</t>
-  </si>
-  <si>
-    <t>Number of Combined Customs Declaration</t>
-  </si>
-  <si>
-    <t>Number of 5-in-1 Customs Declaration</t>
-  </si>
-  <si>
-    <t>Number of 6-in-1 Customs Declaration</t>
-  </si>
-  <si>
-    <t>Customs Declaration #</t>
-  </si>
-  <si>
-    <t>Status of Customs Declaration</t>
-  </si>
-  <si>
-    <t>Status of Customs Inspection</t>
-  </si>
-  <si>
-    <t>Status of CIQ Inspection for Commodity Quality</t>
-  </si>
-  <si>
-    <t>Release Date of CIQ - Commodity Quality</t>
-  </si>
-  <si>
-    <t>Waybill No.</t>
-  </si>
-  <si>
-    <t>CIQ Contact No.</t>
-  </si>
-  <si>
-    <t>Combined Waybill No.</t>
-  </si>
-  <si>
-    <t>Trucking Company</t>
-  </si>
-  <si>
-    <t>Plate No.</t>
-  </si>
-  <si>
-    <t>Name of Drvier</t>
-  </si>
-  <si>
-    <t>Mobile No. of Driver</t>
-  </si>
-  <si>
-    <t>Place of Consignment Pickup</t>
-  </si>
-  <si>
-    <t>Place 1 of Consignment Delivery</t>
-  </si>
-  <si>
-    <t>Transport Commission Date</t>
-  </si>
-  <si>
-    <t>Planned Pickup Date</t>
-  </si>
-  <si>
-    <t>Planned Delivery Date</t>
-  </si>
-  <si>
-    <t>Actual Delivery Date</t>
-  </si>
-  <si>
-    <t>Date of Container Pickup</t>
-  </si>
-  <si>
-    <t>Date of Container Return</t>
-  </si>
-  <si>
     <t>Seal No.</t>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusiveMaximum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusiveMinimum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,33 +701,190 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -634,12 +894,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -662,29 +1102,318 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -946,126 +1675,123 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="2"/>
-    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1"/>
+    <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>180</v>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4">
         <v>64</v>
@@ -1090,22 +1816,24 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K3" s="4">
         <v>32</v>
@@ -1130,13 +1858,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1145,7 +1873,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4">
         <v>16</v>
@@ -1166,13 +1894,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1181,7 +1909,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4">
         <v>16</v>
@@ -1198,13 +1926,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1213,7 +1941,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K6" s="4">
         <v>32</v>
@@ -1230,13 +1958,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1244,10 +1972,10 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4">
         <v>32</v>
@@ -1264,13 +1992,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1279,7 +2007,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K8" s="4">
         <v>32</v>
@@ -1296,24 +2024,24 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1328,13 +2056,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1343,7 +2071,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K10" s="4">
         <v>64</v>
@@ -1360,13 +2088,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1375,7 +2103,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K11" s="4">
         <v>32</v>
@@ -1392,13 +2120,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1407,7 +2135,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K12" s="4">
         <v>32</v>
@@ -1424,24 +2152,24 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1456,13 +2184,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1471,7 +2199,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K14" s="4">
         <v>32</v>
@@ -1488,24 +2216,24 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1520,13 +2248,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1535,7 +2263,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1550,24 +2278,24 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1582,13 +2310,13 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1597,7 +2325,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K18" s="5">
         <v>64</v>
@@ -1614,24 +2342,24 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1646,13 +2374,13 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1661,7 +2389,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K20" s="4">
         <v>128</v>
@@ -1678,24 +2406,24 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1710,13 +2438,13 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1725,7 +2453,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="K22" s="4">
         <v>128</v>
@@ -1742,24 +2470,24 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1774,13 +2502,13 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1789,7 +2517,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="K24" s="4">
         <v>128</v>
@@ -1806,24 +2534,24 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1838,13 +2566,13 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1853,7 +2581,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="K26" s="4">
         <v>128</v>
@@ -1870,13 +2598,13 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1885,7 +2613,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="K27" s="4">
         <v>32</v>
@@ -1902,13 +2630,13 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1917,7 +2645,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="K28" s="4">
         <v>32</v>
@@ -1934,13 +2662,13 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1949,7 +2677,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="K29" s="4">
         <v>64</v>
@@ -1966,13 +2694,13 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1981,7 +2709,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="K30" s="4">
         <v>64</v>
@@ -1998,13 +2726,13 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2013,7 +2741,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="K31" s="4">
         <v>128</v>
@@ -2030,13 +2758,13 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2045,7 +2773,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="K32" s="4">
         <v>128</v>
@@ -2062,13 +2790,13 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2077,7 +2805,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="K33" s="4">
         <v>32</v>
@@ -2094,13 +2822,13 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2109,7 +2837,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K34" s="4">
         <v>128</v>
@@ -2126,13 +2854,13 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2141,7 +2869,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K35" s="4">
         <v>32</v>
@@ -2158,13 +2886,13 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2173,7 +2901,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="K36" s="4">
         <v>64</v>
@@ -2190,13 +2918,13 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2205,7 +2933,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K37" s="4">
         <v>64</v>
@@ -2222,13 +2950,13 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2237,7 +2965,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K38" s="4">
         <v>64</v>
@@ -2254,13 +2982,13 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2269,7 +2997,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="K39" s="4">
         <v>64</v>
@@ -2286,13 +3014,13 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2301,7 +3029,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="K40" s="4">
         <v>64</v>
@@ -2318,13 +3046,13 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2333,7 +3061,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K41" s="4">
         <v>64</v>
@@ -2350,13 +3078,13 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2365,7 +3093,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="K42" s="4">
         <v>64</v>
@@ -2382,24 +3110,24 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2414,24 +3142,24 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2446,24 +3174,24 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2478,24 +3206,24 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2510,13 +3238,13 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2525,7 +3253,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K47" s="4">
         <v>32</v>
@@ -2542,13 +3270,13 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2557,7 +3285,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2572,13 +3300,13 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2587,7 +3315,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2602,13 +3330,13 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2617,7 +3345,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2632,13 +3360,13 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2647,7 +3375,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K51" s="4">
         <v>128</v>
@@ -2664,13 +3392,13 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2679,7 +3407,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K52" s="4">
         <v>32</v>
@@ -2696,13 +3424,13 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2711,7 +3439,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K53" s="4">
         <v>64</v>
@@ -2728,13 +3456,13 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2743,7 +3471,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2758,13 +3486,13 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2773,7 +3501,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2788,13 +3516,13 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2803,7 +3531,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2818,13 +3546,13 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2833,7 +3561,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="6" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2848,13 +3576,13 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2863,7 +3591,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -2878,13 +3606,13 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2893,7 +3621,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K59" s="4">
         <v>64</v>
@@ -2910,13 +3638,13 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2925,7 +3653,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K60" s="4">
         <v>16</v>
@@ -2942,13 +3670,13 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2957,7 +3685,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K61" s="4">
         <v>64</v>
@@ -2974,13 +3702,13 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2989,7 +3717,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3004,13 +3732,13 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3019,7 +3747,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K63" s="4">
         <v>16</v>
@@ -3036,13 +3764,13 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3051,7 +3779,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3066,13 +3794,13 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3081,7 +3809,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K65" s="4">
         <v>32</v>
@@ -3098,13 +3826,13 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3113,7 +3841,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K66" s="4">
         <v>16</v>
@@ -3130,13 +3858,13 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3145,7 +3873,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K67" s="4">
         <v>32</v>
@@ -3162,13 +3890,13 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3177,7 +3905,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K68" s="4">
         <v>64</v>
@@ -3194,13 +3922,13 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3209,7 +3937,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K69" s="4">
         <v>64</v>
@@ -3226,13 +3954,13 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3241,7 +3969,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K70" s="4">
         <v>256</v>
@@ -3258,13 +3986,13 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3273,7 +4001,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K71" s="4">
         <v>32</v>
@@ -3290,13 +4018,13 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3305,7 +4033,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K72" s="4">
         <v>32</v>
@@ -3322,13 +4050,13 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3337,7 +4065,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K73" s="4">
         <v>128</v>
@@ -3354,13 +4082,13 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3369,7 +4097,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K74" s="4">
         <v>128</v>
@@ -3386,13 +4114,13 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3401,7 +4129,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -3416,13 +4144,13 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3431,7 +4159,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3446,13 +4174,13 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3461,7 +4189,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -3476,13 +4204,13 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3491,7 +4219,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3506,13 +4234,13 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3521,7 +4249,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -3536,13 +4264,13 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3551,7 +4279,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3566,13 +4294,13 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3581,7 +4309,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -3596,13 +4324,13 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3611,7 +4339,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K82" s="4">
         <v>64</v>
@@ -3627,8 +4355,8 @@
       <c r="T82" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>